--- a/Pharmacy/NghiepVu.xlsx
+++ b/Pharmacy/NghiepVu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="26">
   <si>
     <t>Bán hàng</t>
   </si>
@@ -64,6 +64,39 @@
   </si>
   <si>
     <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Điều chỉnh giá</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Tài khoản</t>
+  </si>
+  <si>
+    <t>Phân quyền</t>
+  </si>
+  <si>
+    <t>Hàng hóa</t>
+  </si>
+  <si>
+    <t>Kế toán</t>
+  </si>
+  <si>
+    <t>Hệ thống</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Xử lý đơn đặt hàng</t>
+  </si>
+  <si>
+    <t>Đại lý</t>
   </si>
 </sst>
 </file>
@@ -105,16 +138,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,403 +438,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F33"/>
+  <dimension ref="A2:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="B4:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Pharmacy/NghiepVu.xlsx
+++ b/Pharmacy/NghiepVu.xlsx
@@ -150,13 +150,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,12 +440,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
@@ -456,9 +457,9 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -470,13 +471,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -490,9 +491,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -506,9 +507,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -522,9 +523,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
@@ -536,9 +537,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
@@ -550,9 +551,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
@@ -564,11 +565,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -582,9 +583,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -598,9 +599,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -614,9 +615,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -630,9 +631,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
@@ -644,9 +645,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
@@ -658,13 +659,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -678,9 +679,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -694,9 +695,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
@@ -708,9 +709,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
@@ -722,11 +723,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -740,9 +741,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
@@ -754,9 +755,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
@@ -768,9 +769,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
@@ -782,13 +783,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -802,9 +803,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -818,9 +819,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -834,9 +835,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -850,8 +851,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
@@ -863,9 +864,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
@@ -877,9 +878,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
@@ -891,9 +892,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
@@ -905,9 +906,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
@@ -919,9 +920,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="2" t="s">
         <v>11</v>
       </c>
@@ -933,9 +934,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
